--- a/ANPR.xlsx
+++ b/ANPR.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D722BF4E-0EE0-48F2-A778-882BDD110E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A864B0C-4176-4D0B-A10C-363AE5B70DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CCF958B1-0F1C-400A-864F-37D52F0BD6BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
-    <sheet name="Ilustrasi" sheetId="2" r:id="rId2"/>
+    <sheet name="Timeline1" sheetId="3" r:id="rId2"/>
+    <sheet name="Ilustrasi" sheetId="2" r:id="rId3"/>
+    <sheet name="Procurement (Analisis Kebutuhan" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,15 +38,204 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+  <si>
+    <t>Timeline Project Number Plate Detection</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tahap Pekerjaan</t>
+  </si>
+  <si>
+    <t>Persentase</t>
+  </si>
+  <si>
+    <t>Estimasi Durasi</t>
+  </si>
+  <si>
+    <t>Analisis Kebutuhan &amp; Desain Arsitektur</t>
+  </si>
+  <si>
+    <t>4 hari</t>
+  </si>
+  <si>
+    <t>Desain Topologi Jaringan &amp; VLAN Planning</t>
+  </si>
+  <si>
+    <t>2 hari</t>
+  </si>
+  <si>
+    <t>Pengadaan Perangkat &amp; Material</t>
+  </si>
+  <si>
+    <t>7 hari</t>
+  </si>
+  <si>
+    <t>07 Jan – 13 Jan</t>
+  </si>
+  <si>
+    <t>Instalasi Fisik (Kamera, Kabel, PoE, PC)</t>
+  </si>
+  <si>
+    <t>14 Jan – 20 Jan</t>
+  </si>
+  <si>
+    <t>Konfigurasi Jaringan &amp; VLAN</t>
+  </si>
+  <si>
+    <t>21 Jan – 24 Jan</t>
+  </si>
+  <si>
+    <t>Instalasi Software ANPR &amp; Integrasi API</t>
+  </si>
+  <si>
+    <t>10 hari</t>
+  </si>
+  <si>
+    <t>25 Jan – 03 Feb</t>
+  </si>
+  <si>
+    <t>Pembuatan Database &amp; Form Registrasi</t>
+  </si>
+  <si>
+    <t>5 hari</t>
+  </si>
+  <si>
+    <t>04 Feb – 08 Feb</t>
+  </si>
+  <si>
+    <t>Integrasi Lampu/Relay (Aksi Otomatis)</t>
+  </si>
+  <si>
+    <t>09 Feb – 10 Feb</t>
+  </si>
+  <si>
+    <t>Uji Coba Lapangan (Testing &amp; Debugging)</t>
+  </si>
+  <si>
+    <t>3 hari</t>
+  </si>
+  <si>
+    <t>11 Feb – 13 Feb</t>
+  </si>
+  <si>
+    <t>Pelatihan Pengguna &amp; Dokumentasi</t>
+  </si>
+  <si>
+    <t>14 Feb – 15 Feb</t>
+  </si>
+  <si>
+    <t>Go-Live &amp; Monitoring Awal</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>16 Feb – 18 Feb</t>
+  </si>
+  <si>
+    <t>Task / Tanggal</t>
+  </si>
+  <si>
+    <t>Analisis Kebutuhan</t>
+  </si>
+  <si>
+    <t>Desain Topologi &amp; VLAN</t>
+  </si>
+  <si>
+    <t>Pengadaan Perangkat</t>
+  </si>
+  <si>
+    <t>Instalasi Fisik Perangkat</t>
+  </si>
+  <si>
+    <t>Integrasi Lampu/Relay</t>
+  </si>
+  <si>
+    <t>Uji Coba Lapangan</t>
+  </si>
+  <si>
+    <t>Tanggal  (2025)</t>
+  </si>
+  <si>
+    <t>(Total estimasi: ± 3 bulan / 12 minggu)</t>
+  </si>
+  <si>
+    <t>01 Jan – 10 Jan</t>
+  </si>
+  <si>
+    <t>10 Jan – 12 Jan</t>
+  </si>
+  <si>
+    <t>Agustus</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Pembuatan Desain DB &amp; Form</t>
+  </si>
+  <si>
+    <t>Pelatihan data</t>
+  </si>
+  <si>
+    <t>Data collecting for AI</t>
+  </si>
+  <si>
+    <t>Pembuat Algoritma ANPR system</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -63,12 +254,217 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,16 +486,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>203662</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112222</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>386912</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>573160</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -122,8 +518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="813262" y="6960870"/>
-          <a:ext cx="14204050" cy="14405610"/>
+          <a:off x="112222" y="7559040"/>
+          <a:ext cx="16920138" cy="17160240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -134,16 +530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>450966</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>268086</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>426498</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>243618</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -166,8 +562,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16910166" y="9944100"/>
-          <a:ext cx="12777132" cy="13525499"/>
+          <a:off x="17946486" y="9456420"/>
+          <a:ext cx="12777132" cy="12984479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -224,15 +620,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>521970</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>59936</xdr:rowOff>
+      <xdr:colOff>92478</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>415786</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>595894</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -249,15 +645,15 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect b="54461"/>
+        <a:srcRect b="56796"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="521970" y="440936"/>
-          <a:ext cx="17572216" cy="8283964"/>
+          <a:off x="92478" y="156918"/>
+          <a:ext cx="17572216" cy="7435373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,22 +982,1143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7526066-7C8E-4997-8E1F-B9B23168BE09}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D79EEC9-3BA6-4E74-AA85-0CC5A0C5A375}">
+  <dimension ref="A3:BI15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="46" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="BG15" sqref="BG15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:61" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="8"/>
+    </row>
+    <row r="4" spans="1:61" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>6</v>
+      </c>
+      <c r="H4" s="12">
+        <v>7</v>
+      </c>
+      <c r="I4" s="12">
+        <v>8</v>
+      </c>
+      <c r="J4" s="12">
+        <v>9</v>
+      </c>
+      <c r="K4" s="12">
+        <v>10</v>
+      </c>
+      <c r="L4" s="12">
+        <v>11</v>
+      </c>
+      <c r="M4" s="12">
+        <v>12</v>
+      </c>
+      <c r="N4" s="12">
+        <v>13</v>
+      </c>
+      <c r="O4" s="12">
+        <v>14</v>
+      </c>
+      <c r="P4" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>16</v>
+      </c>
+      <c r="R4" s="12">
+        <v>17</v>
+      </c>
+      <c r="S4" s="12">
+        <v>18</v>
+      </c>
+      <c r="T4" s="12">
+        <v>19</v>
+      </c>
+      <c r="U4" s="12">
+        <v>20</v>
+      </c>
+      <c r="V4" s="12">
+        <v>21</v>
+      </c>
+      <c r="W4" s="12">
+        <v>22</v>
+      </c>
+      <c r="X4" s="12">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="12">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AL4" s="12">
+        <v>7</v>
+      </c>
+      <c r="AM4" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="12">
+        <v>10</v>
+      </c>
+      <c r="AP4" s="12">
+        <v>11</v>
+      </c>
+      <c r="AQ4" s="12">
+        <v>12</v>
+      </c>
+      <c r="AR4" s="12">
+        <v>13</v>
+      </c>
+      <c r="AS4" s="12">
+        <v>14</v>
+      </c>
+      <c r="AT4" s="12">
+        <v>15</v>
+      </c>
+      <c r="AU4" s="12">
+        <v>16</v>
+      </c>
+      <c r="AV4" s="12">
+        <v>17</v>
+      </c>
+      <c r="AW4" s="12">
+        <v>18</v>
+      </c>
+      <c r="AX4" s="12">
+        <v>19</v>
+      </c>
+      <c r="AY4" s="12">
+        <v>20</v>
+      </c>
+      <c r="AZ4" s="12">
+        <v>21</v>
+      </c>
+      <c r="BA4" s="12">
+        <v>22</v>
+      </c>
+      <c r="BB4" s="12">
+        <v>23</v>
+      </c>
+      <c r="BC4" s="12">
+        <v>24</v>
+      </c>
+      <c r="BD4" s="12">
+        <v>25</v>
+      </c>
+      <c r="BE4" s="12">
+        <v>26</v>
+      </c>
+      <c r="BF4" s="12">
+        <v>27</v>
+      </c>
+      <c r="BG4" s="12">
+        <v>28</v>
+      </c>
+      <c r="BH4" s="12">
+        <v>29</v>
+      </c>
+      <c r="BI4" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" ht="36" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="17"/>
+    </row>
+    <row r="6" spans="1:61" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BH6" s="13"/>
+      <c r="BI6" s="18"/>
+    </row>
+    <row r="7" spans="1:61" ht="36" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="13"/>
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="18"/>
+    </row>
+    <row r="8" spans="1:61" ht="36" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="13"/>
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="18"/>
+    </row>
+    <row r="9" spans="1:61" ht="36" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="18"/>
+    </row>
+    <row r="10" spans="1:61" ht="36" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="18"/>
+    </row>
+    <row r="11" spans="1:61" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="18"/>
+    </row>
+    <row r="12" spans="1:61" ht="54" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="18"/>
+    </row>
+    <row r="13" spans="1:61" ht="36" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="21"/>
+    </row>
+    <row r="14" spans="1:61" ht="36" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+    </row>
+    <row r="15" spans="1:61" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:AE3"/>
+    <mergeCell ref="AF3:BI3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC1D9E5-FD4C-4F57-9DE5-27A4CF126304}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="20" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="BC52" sqref="BC52"/>
+    <sheetView topLeftCell="AA7" zoomScale="67" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,4 +2126,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC8F07C-BCAB-4CA5-9719-BF0569013C3D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>